--- a/379stats.xlsx
+++ b/379stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafflecake/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3F89EA-B88E-CD48-87AE-99E8FBAC3D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176AB718-66AA-F147-BB4B-3493BF927805}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8A13544B-3311-FB44-B635-C7E078CB3ED4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="23">
   <si>
     <t>MergSort</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>LRG= 5000</t>
+  </si>
+  <si>
+    <t>MergeSort</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C2E77E-A6DF-FF46-A3AA-A85F0374AF5F}">
   <dimension ref="A1:AI78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4842,7 +4845,7 @@
     </row>
     <row r="65" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>1</v>
@@ -4870,18 +4873,30 @@
       <c r="C66" s="16">
         <v>512</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
+      <c r="D66" s="22">
+        <v>6051539</v>
+      </c>
+      <c r="E66" s="23">
+        <v>5240</v>
+      </c>
       <c r="F66" s="23">
         <v>0.21645916000000001</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
+      <c r="G66" s="23">
+        <v>6055688</v>
+      </c>
+      <c r="H66" s="23">
+        <v>1509</v>
+      </c>
       <c r="I66" s="23">
         <v>6.073713E-2</v>
       </c>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="J66" s="23">
+        <v>6056092</v>
+      </c>
+      <c r="K66" s="23">
+        <v>1044</v>
+      </c>
       <c r="L66" s="23">
         <v>1.02845E-3</v>
       </c>
@@ -4893,18 +4908,30 @@
       <c r="C67" s="16">
         <v>4096</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
+      <c r="D67" s="22">
+        <v>6056952</v>
+      </c>
+      <c r="E67" s="23">
+        <v>770</v>
+      </c>
       <c r="F67" s="23">
         <v>1.712872E-2</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="G67" s="23">
+        <v>6058011</v>
+      </c>
+      <c r="H67" s="23">
+        <v>232</v>
+      </c>
       <c r="I67" s="23">
         <v>1.9001000000000001E-4</v>
       </c>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="J67" s="23">
+        <v>6056343</v>
+      </c>
+      <c r="K67" s="23">
+        <v>225</v>
+      </c>
       <c r="L67" s="23">
         <v>1.6736E-4</v>
       </c>
@@ -4916,18 +4943,30 @@
       <c r="C68" s="25">
         <v>32768</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
+      <c r="D68" s="22">
+        <v>6056162</v>
+      </c>
+      <c r="E68" s="23">
+        <v>107</v>
+      </c>
       <c r="F68" s="26">
         <v>7.8066999999999996E-5</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="G68" s="23">
+        <v>6057066</v>
+      </c>
+      <c r="H68" s="23">
+        <v>86</v>
+      </c>
       <c r="I68" s="26">
         <v>4.4193999999999997E-5</v>
       </c>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
+      <c r="J68" s="23">
+        <v>6057321</v>
+      </c>
+      <c r="K68" s="23">
+        <v>86</v>
+      </c>
       <c r="L68" s="26">
         <v>4.4206999999999999E-5</v>
       </c>
